--- a/TP10/tri-rapide.xlsx
+++ b/TP10/tri-rapide.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GDrive_baille.maths\ITC 1A - 2021-2022\TP10\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Info1A_2021-22\TP10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50B5972A-DBDF-49CE-B496-B58F8DBDBBC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F166FC8-4FDC-4D66-AC9C-8924B97ED7C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="29">
   <si>
     <t>positions</t>
   </si>
@@ -119,6 +119,9 @@
   </si>
   <si>
     <t>[1, 2, 2, 4, 6, 6, 7]</t>
+  </si>
+  <si>
+    <t>Liste triée</t>
   </si>
 </sst>
 </file>
@@ -312,19 +315,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -339,10 +336,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -627,8 +630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:Y23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q27" sqref="Q27"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="S29" sqref="S29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -640,19 +643,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
     </row>
     <row r="2" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C2" s="2"/>
@@ -667,8 +670,8 @@
       <c r="L2" s="6"/>
     </row>
     <row r="3" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C3" s="21"/>
-      <c r="D3" s="22"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="20"/>
       <c r="E3" s="3">
         <v>0</v>
       </c>
@@ -689,10 +692,10 @@
       </c>
     </row>
     <row r="4" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="20"/>
+      <c r="D4" s="18"/>
       <c r="E4" s="8">
         <v>0</v>
       </c>
@@ -719,10 +722,10 @@
       </c>
     </row>
     <row r="5" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="24"/>
+      <c r="D5" s="16"/>
       <c r="E5" s="1">
         <v>6</v>
       </c>
@@ -775,32 +778,32 @@
       <c r="L7" s="6"/>
     </row>
     <row r="8" spans="3:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="O8" s="16" t="s">
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="O8" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="16"/>
-      <c r="T8" s="16"/>
-      <c r="U8" s="16"/>
-      <c r="V8" s="16"/>
-      <c r="W8" s="16"/>
-      <c r="X8" s="16"/>
-      <c r="Y8" s="16"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="14"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="14"/>
+      <c r="X8" s="14"/>
+      <c r="Y8" s="14"/>
     </row>
     <row r="9" spans="3:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C9" s="2"/>
@@ -825,25 +828,25 @@
       <c r="X9" s="6"/>
     </row>
     <row r="10" spans="3:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="6"/>
-      <c r="O10" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="17"/>
+      <c r="O10" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
+      <c r="S10" s="23"/>
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
       <c r="V10" s="2"/>
@@ -851,25 +854,25 @@
       <c r="X10" s="6"/>
     </row>
     <row r="11" spans="3:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="6"/>
-      <c r="O11" s="18" t="s">
+      <c r="O11" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="18"/>
-      <c r="R11" s="18"/>
-      <c r="S11" s="18"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="24"/>
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
       <c r="V11" s="2"/>
@@ -899,33 +902,33 @@
       <c r="X12" s="6"/>
     </row>
     <row r="13" spans="3:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="14"/>
+      <c r="D13" s="22"/>
       <c r="E13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="14"/>
+      <c r="G13" s="22"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="6"/>
-      <c r="O13" s="14" t="s">
+      <c r="O13" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="P13" s="14"/>
+      <c r="P13" s="22"/>
       <c r="Q13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="R13" s="14" t="s">
+      <c r="R13" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="S13" s="14"/>
+      <c r="S13" s="22"/>
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
@@ -933,33 +936,33 @@
       <c r="X13" s="6"/>
     </row>
     <row r="14" spans="3:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="15"/>
+      <c r="D14" s="21"/>
       <c r="E14" s="1">
         <v>6</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="F14" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="15"/>
+      <c r="G14" s="21"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="6"/>
-      <c r="O14" s="15" t="s">
+      <c r="O14" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="P14" s="15"/>
+      <c r="P14" s="21"/>
       <c r="Q14" s="1">
         <v>6</v>
       </c>
-      <c r="R14" s="15" t="s">
+      <c r="R14" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="S14" s="15"/>
+      <c r="S14" s="21"/>
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
       <c r="V14" s="2"/>
@@ -1011,33 +1014,33 @@
       <c r="X16" s="6"/>
     </row>
     <row r="17" spans="3:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="14"/>
+      <c r="D17" s="22"/>
       <c r="E17" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="14" t="s">
+      <c r="F17" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="14"/>
+      <c r="G17" s="22"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="6"/>
-      <c r="O17" s="14" t="s">
+      <c r="O17" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="P17" s="14"/>
+      <c r="P17" s="22"/>
       <c r="Q17" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="R17" s="14" t="s">
+      <c r="R17" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="S17" s="14"/>
+      <c r="S17" s="22"/>
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
       <c r="V17" s="2"/>
@@ -1045,33 +1048,33 @@
       <c r="X17" s="6"/>
     </row>
     <row r="18" spans="3:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="15"/>
+      <c r="D18" s="21"/>
       <c r="E18" s="1">
         <v>2</v>
       </c>
-      <c r="F18" s="15" t="s">
+      <c r="F18" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="G18" s="15"/>
+      <c r="G18" s="21"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="6"/>
-      <c r="O18" s="15" t="s">
+      <c r="O18" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="P18" s="15"/>
+      <c r="P18" s="21"/>
       <c r="Q18" s="1">
         <v>2</v>
       </c>
-      <c r="R18" s="15" t="s">
+      <c r="R18" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="S18" s="15"/>
+      <c r="S18" s="21"/>
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
@@ -1123,100 +1126,100 @@
       <c r="X20" s="6"/>
     </row>
     <row r="21" spans="3:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="14"/>
+      <c r="D21" s="22"/>
       <c r="E21" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="14" t="s">
+      <c r="F21" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="14"/>
+      <c r="G21" s="22"/>
       <c r="H21" s="2"/>
-      <c r="I21" s="14" t="s">
+      <c r="I21" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="J21" s="14"/>
+      <c r="J21" s="22"/>
       <c r="K21" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L21" s="14" t="s">
+      <c r="L21" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="M21" s="14"/>
-      <c r="O21" s="14" t="s">
+      <c r="M21" s="22"/>
+      <c r="O21" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="P21" s="14"/>
+      <c r="P21" s="22"/>
       <c r="Q21" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="R21" s="14" t="s">
+      <c r="R21" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="S21" s="14"/>
+      <c r="S21" s="22"/>
       <c r="T21" s="2"/>
-      <c r="U21" s="14" t="s">
+      <c r="U21" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="V21" s="14"/>
+      <c r="V21" s="22"/>
       <c r="W21" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="X21" s="14" t="s">
+      <c r="X21" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="Y21" s="14"/>
+      <c r="Y21" s="22"/>
     </row>
     <row r="22" spans="3:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="15"/>
+      <c r="D22" s="21"/>
       <c r="E22" s="1">
         <v>2</v>
       </c>
-      <c r="F22" s="15" t="s">
+      <c r="F22" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="G22" s="15"/>
+      <c r="G22" s="21"/>
       <c r="H22" s="2"/>
-      <c r="I22" s="15" t="s">
+      <c r="I22" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="J22" s="15"/>
+      <c r="J22" s="21"/>
       <c r="K22" s="1">
         <v>4</v>
       </c>
-      <c r="L22" s="15" t="s">
+      <c r="L22" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="M22" s="15"/>
-      <c r="O22" s="15" t="s">
+      <c r="M22" s="21"/>
+      <c r="O22" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="P22" s="15"/>
+      <c r="P22" s="21"/>
       <c r="Q22" s="1">
         <v>2</v>
       </c>
-      <c r="R22" s="15" t="s">
+      <c r="R22" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="S22" s="15"/>
+      <c r="S22" s="21"/>
       <c r="T22" s="2"/>
-      <c r="U22" s="15" t="s">
+      <c r="U22" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="V22" s="15"/>
+      <c r="V22" s="21"/>
       <c r="W22" s="1">
         <v>4</v>
       </c>
-      <c r="X22" s="15" t="s">
+      <c r="X22" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="Y22" s="15"/>
+      <c r="Y22" s="21"/>
     </row>
     <row r="23" spans="3:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="2"/>
@@ -1232,26 +1235,6 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="C8:M8"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="O8:Y8"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="F13:G13"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="C10:G10"/>
@@ -1262,11 +1245,16 @@
     <mergeCell ref="R13:S13"/>
     <mergeCell ref="O14:P14"/>
     <mergeCell ref="R14:S14"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="O8:Y8"/>
     <mergeCell ref="X21:Y21"/>
     <mergeCell ref="U22:V22"/>
     <mergeCell ref="X22:Y22"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="R17:S17"/>
     <mergeCell ref="O18:P18"/>
     <mergeCell ref="R18:S18"/>
     <mergeCell ref="O21:P21"/>
@@ -1274,6 +1262,21 @@
     <mergeCell ref="O22:P22"/>
     <mergeCell ref="R22:S22"/>
     <mergeCell ref="U21:V21"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="C8:M8"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="F13:G13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
